--- a/R/FixedData/Summary_kmatsui_6devices.xlsx
+++ b/R/FixedData/Summary_kmatsui_6devices.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9204" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9204" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="only" sheetId="2" r:id="rId2"/>
+    <sheet name="except" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="27">
   <si>
     <t>down</t>
     <phoneticPr fontId="1"/>
@@ -89,6 +90,39 @@
   <si>
     <t>precision</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Galaxy-S5</t>
+  </si>
+  <si>
+    <t>Galaxy-S6edge</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>Nexus7-2012</t>
+  </si>
+  <si>
+    <t>Nexus7-2013</t>
+  </si>
+  <si>
+    <t>Xperia-Z3</t>
+  </si>
+  <si>
+    <t>Xperia-Z5</t>
   </si>
 </sst>
 </file>
@@ -465,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +978,2646 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H51" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>B3</f>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f>N3</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>O3</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>K3</f>
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <f>M3</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>L3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C14" si="0">E4</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D14" si="1">B4</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E14" si="2">D4</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F14" si="3">C4</f>
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K14" si="4">N4</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L14" si="5">O4</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M14" si="6">K4</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N14" si="7">M4</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O14" si="8">L4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f>B13</f>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:F18" si="9">C13</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>B17/SUM(B17:F17)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f>K13</f>
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:O17" si="10">L13</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>K17/SUM(K17:O17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f>B14</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>C18/SUM(B18:F18)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <f>K14</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:O18" si="11">L14</f>
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>L18/SUM(K18:O18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="12">C10</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>D19/SUM(B19:F19)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <f>K10</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:O19" si="13">L10</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>M19/SUM(K19:O19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="14">C12</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>E20/SUM(B20:F20)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f>K12</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:O20" si="15">L12</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>N20/SUM(K20:O20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="16">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <f>F21/SUM(B21:F21)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(G17:G21)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <f>K11</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:O21" si="17">L11</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <f>O21/SUM(K21:O21)</f>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f>AVERAGE(P17:P21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f>B17/SUM(B17:B21)</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>C18/SUM(C17:C21)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>D19/SUM(D17:D21)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>E20/SUM(E17:E21)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>F21/SUM(F17:F21)</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>K17/SUM(K17:K21)</f>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f>L18/SUM(L17:L21)</f>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f>M19/SUM(M17:M21)</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f>N20/SUM(N17:N21)</f>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f>O21/SUM(O17:O21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F23">
+        <f>AVERAGE(B22:F22)</f>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f>AVERAGE(K22:O22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>F27</f>
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f>B27</f>
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <f>N27</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>O27</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>K27</f>
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <f>M27</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:B38" si="18">E28</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C38" si="19">F28</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D38" si="20">B28</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E38" si="21">D28</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F38" si="22">C28</f>
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K38" si="23">N28</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L38" si="24">O28</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M38" si="25">K28</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N38" si="26">M28</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O38" si="27">L28</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <f>B37</f>
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:F41" si="28">C37</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>B41/SUM(B41:F41)</f>
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <f>K37</f>
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41:O41" si="29">L37</f>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f>K41/SUM(K41:O41)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <f>B38</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:F42" si="30">C38</f>
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>C42/SUM(B42:F42)</f>
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <f>K38</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:O42" si="31">L38</f>
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f>L42/SUM(K42:O42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f>B34</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:F43" si="32">C34</f>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>D43/SUM(B43:F43)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <f>K34</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:O43" si="33">L34</f>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f>M43/SUM(K43:O43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <f>B36</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:F44" si="34">C36</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>E44/SUM(B44:F44)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <f>K36</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ref="L44:O44" si="35">L36</f>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f>N44/SUM(K44:O44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <f>B35</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:F45" si="36">C35</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <f>F45/SUM(B45:F45)</f>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(G41:G45)</f>
+        <v>0.96</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <f>K35</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ref="L45:O45" si="37">L35</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <f>O45/SUM(K45:O45)</f>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f>AVERAGE(P41:P45)</f>
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <f>B41/SUM(B41:B45)</f>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f>C42/SUM(C41:C45)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D46">
+        <f>D43/SUM(D41:D45)</f>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f>E44/SUM(E41:E45)</f>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f>F45/SUM(F41:F45)</f>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f>K41/SUM(K41:K45)</f>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f>L42/SUM(L41:L45)</f>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f>M43/SUM(M41:M45)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N46">
+        <f>N44/SUM(N41:N45)</f>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f>O45/SUM(O41:O45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F47">
+        <f>AVERAGE(B46:F46)</f>
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="O47">
+        <f>AVERAGE(K46:O46)</f>
+        <v>0.98181818181818181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>10</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>9</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <f>E51</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>F51</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <f>D51</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>C51</f>
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <f>N51</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>O51</f>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f>K51</f>
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <f>M51</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>L51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:B62" si="38">E52</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:C62" si="39">F52</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:D62" si="40">B52</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:E62" si="41">D52</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59:F62" si="42">C52</f>
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ref="K59:K62" si="43">N52</f>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ref="L59:L62" si="44">O52</f>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ref="M59:M62" si="45">K52</f>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:N62" si="46">M52</f>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59:O62" si="47">L52</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="41"/>
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L64" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <f>B61</f>
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:F65" si="48">C61</f>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>B65/SUM(B65:F65)</f>
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <f>K61</f>
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65:O65" si="49">L61</f>
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f>K65/SUM(K65:O65)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <f>B62</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:F66" si="50">C62</f>
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>C66/SUM(B66:F66)</f>
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <f>K62</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:O66" si="51">L62</f>
+        <v>10</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f>L66/SUM(K66:O66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <f>B58</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:F67" si="52">C58</f>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>D67/SUM(B67:F67)</f>
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <f>K58</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:O67" si="53">L58</f>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f>M67/SUM(K67:O67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <f>B60</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:F68" si="54">C60</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>E68/SUM(B68:F68)</f>
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <f>K60</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:O68" si="55">L60</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f>N68/SUM(K68:O68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <f>B59</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:F69" si="56">C59</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <f>F69/SUM(B69:F69)</f>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f>AVERAGE(G65:G69)</f>
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <f>K59</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ref="L69:O69" si="57">L59</f>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="P69">
+        <f>O69/SUM(K69:O69)</f>
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <f>AVERAGE(P65:P69)</f>
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <f>B65/SUM(B65:B69)</f>
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <f>C66/SUM(C65:C69)</f>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f>D67/SUM(D65:D69)</f>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <f>E68/SUM(E65:E69)</f>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f>F69/SUM(F65:F69)</f>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f>K65/SUM(K65:K69)</f>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f>L66/SUM(L65:L69)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="M70">
+        <f>M67/SUM(M65:M69)</f>
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f>N68/SUM(N65:N69)</f>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f>O69/SUM(O65:O69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F71">
+        <f>AVERAGE(B70:F70)</f>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f>AVERAGE(K70:O70)</f>
+        <v>0.98181818181818181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H58" workbookViewId="0">
       <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
@@ -952,47 +3625,47 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1010,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -1030,7 +3703,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1048,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1068,25 +3741,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1106,7 +3779,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1124,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1144,7 +3817,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1162,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1182,39 +3855,39 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <f>E3</f>
@@ -1237,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <f>N3</f>
@@ -1262,7 +3935,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:C14" si="0">E4</f>
@@ -1285,32 +3958,32 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K14" si="4">N4</f>
+        <f t="shared" ref="K11:L14" si="4">N4</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L14" si="5">O4</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M14" si="6">K4</f>
+        <f t="shared" ref="M11:M14" si="5">K4</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N14" si="7">M4</f>
+        <f t="shared" ref="N11:N14" si="6">M4</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O14" si="8">L4</f>
+        <f t="shared" ref="O11:O14" si="7">L4</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -1318,47 +3991,47 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -1381,32 +4054,32 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -1429,83 +4102,83 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O16" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <f>B13</f>
         <v>10</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:F18" si="9">C13</f>
+        <f t="shared" ref="C17:F18" si="8">C13</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G17">
@@ -1513,26 +4186,26 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K17">
         <f>K13</f>
         <v>10</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:O17" si="10">L13</f>
+        <f t="shared" ref="L17:O18" si="9">L13</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P17">
@@ -1542,26 +4215,26 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <f>B14</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="D18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G18">
@@ -1569,26 +4242,26 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K18">
         <f>K14</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:O18" si="11">L14</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="M18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P18">
@@ -1598,26 +4271,26 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <f>B10</f>
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:F19" si="12">C10</f>
+        <f t="shared" ref="C19:F19" si="10">C10</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G19">
@@ -1625,26 +4298,26 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <f>K10</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:O19" si="13">L10</f>
+        <f t="shared" ref="L19:O19" si="11">L10</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="N19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P19">
@@ -1654,53 +4327,53 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:F20" si="14">C12</f>
-        <v>0</v>
+        <f t="shared" ref="C20:F20" si="12">C12</f>
+        <v>3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="F20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G20">
         <f>E20/SUM(B20:F20)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K20">
         <f>K12</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:O20" si="15">L12</f>
+        <f t="shared" ref="L20:O20" si="13">L12</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P20">
@@ -1710,26 +4383,26 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <f>B11</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:F21" si="16">C11</f>
+        <f t="shared" ref="C21:F21" si="14">C11</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="G21">
@@ -1738,29 +4411,29 @@
       </c>
       <c r="H21">
         <f>AVERAGE(G17:G21)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J21" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K21">
         <f>K11</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:O21" si="17">L11</f>
+        <f t="shared" ref="L21:O21" si="15">L11</f>
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="P21">
@@ -1779,11 +4452,11 @@
       </c>
       <c r="C22">
         <f>C18/SUM(C17:C21)</f>
-        <v>1</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="D22">
         <f>D19/SUM(D17:D21)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E22">
         <f>E20/SUM(E17:E21)</f>
@@ -1817,7 +4490,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F23">
         <f>AVERAGE(B22:F22)</f>
-        <v>1</v>
+        <v>0.92051282051282046</v>
       </c>
       <c r="O23">
         <f>AVERAGE(K22:O22)</f>
@@ -1826,68 +4499,68 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N26" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O26" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1899,12 +4572,12 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1922,13 +4595,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1942,7 +4615,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1960,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1980,7 +4653,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1998,27 +4671,27 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2027,16 +4700,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2056,62 +4729,62 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <f>E27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <f>F27</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <f>B27</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <f>D27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <f>C27</f>
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K34">
         <f>N27</f>
@@ -2119,11 +4792,11 @@
       </c>
       <c r="L34">
         <f>O27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <f>K27</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <f>M27</f>
@@ -2136,250 +4809,250 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:B38" si="18">E28</f>
+        <f t="shared" ref="B35:C38" si="16">E28</f>
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C38" si="19">F28</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D38" si="20">B28</f>
+        <f t="shared" ref="D35:D38" si="17">B28</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E38" si="21">D28</f>
+        <f t="shared" ref="E35:E38" si="18">D28</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F38" si="22">C28</f>
+        <f t="shared" ref="F35:F38" si="19">C28</f>
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K38" si="23">N28</f>
+        <f t="shared" ref="K35:L38" si="20">N28</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:L38" si="24">O28</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M38" si="25">K28</f>
-        <v>0</v>
+        <f t="shared" ref="M35:M38" si="21">K28</f>
+        <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N38" si="26">M28</f>
+        <f t="shared" ref="N35:N38" si="22">M28</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:O38" si="27">L28</f>
-        <v>10</v>
+        <f t="shared" ref="O35:O38" si="23">L28</f>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D36">
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="L36">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B37">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="23"/>
-        <v>9</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="L38">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="N38">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38">
+      <c r="O38">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="24"/>
-        <v>10</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M40" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O40" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <f>B37</f>
         <v>10</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:F41" si="28">C37</f>
+        <f t="shared" ref="C41:F42" si="24">C37</f>
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G41">
@@ -2387,82 +5060,82 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K41">
         <f>K37</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41:O41" si="29">L37</f>
-        <v>0</v>
+        <f t="shared" ref="L41:O42" si="25">L37</f>
+        <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="O41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P41">
         <f>K41/SUM(K41:O41)</f>
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <f>B38</f>
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:F42" si="30">C38</f>
-        <v>10</v>
+        <f t="shared" si="24"/>
+        <v>9</v>
       </c>
       <c r="D42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G42">
         <f>C42/SUM(B42:F42)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J42" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K42">
         <f>K38</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:O42" si="31">L38</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="M42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P42">
@@ -2472,82 +5145,82 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <f>B34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:F43" si="32">C34</f>
-        <v>2</v>
+        <f t="shared" ref="C43:F43" si="26">C34</f>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="32"/>
-        <v>8</v>
+        <f t="shared" si="26"/>
+        <v>7</v>
       </c>
       <c r="E43">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G43">
         <f>D43/SUM(B43:F43)</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J43" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K43">
         <f>K34</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:O43" si="33">L34</f>
-        <v>0</v>
+        <f t="shared" ref="L43:O43" si="27">L34</f>
+        <v>1</v>
       </c>
       <c r="M43">
-        <f t="shared" si="33"/>
-        <v>10</v>
+        <f t="shared" si="27"/>
+        <v>9</v>
       </c>
       <c r="N43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P43">
         <f>M43/SUM(K43:O43)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <f>B36</f>
         <v>0</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:F44" si="34">C36</f>
+        <f t="shared" ref="C44:F44" si="28">C36</f>
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G44">
@@ -2555,26 +5228,26 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K44">
         <f>K36</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:O44" si="35">L36</f>
+        <f t="shared" ref="L44:O44" si="29">L36</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="O44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P44">
@@ -2584,26 +5257,26 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <f>B35</f>
         <v>0</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:F45" si="36">C35</f>
+        <f t="shared" ref="C45:F45" si="30">C35</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="G45">
@@ -2612,48 +5285,48 @@
       </c>
       <c r="H45">
         <f>AVERAGE(G41:G45)</f>
-        <v>0.96</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="J45" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K45">
         <f>K35</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:O45" si="37">L35</f>
+        <f t="shared" ref="L45:O45" si="31">L35</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="37"/>
-        <v>10</v>
+        <f t="shared" si="31"/>
+        <v>9</v>
       </c>
       <c r="P45">
         <f>O45/SUM(K45:O45)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q45">
         <f>AVERAGE(P41:P45)</f>
-        <v>0.98000000000000009</v>
+        <v>0.88000000000000012</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B46">
         <f>B41/SUM(B41:B45)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C46">
         <f>C42/SUM(C41:C45)</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <f>D43/SUM(D41:D45)</f>
@@ -2661,7 +5334,7 @@
       </c>
       <c r="E46">
         <f>E44/SUM(E41:E45)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F46">
         <f>F45/SUM(F41:F45)</f>
@@ -2673,15 +5346,15 @@
       </c>
       <c r="L46">
         <f>L42/SUM(L41:L45)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M46">
         <f>M43/SUM(M41:M45)</f>
-        <v>0.90909090909090906</v>
+        <v>0.75</v>
       </c>
       <c r="N46">
         <f>N44/SUM(N41:N45)</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O46">
         <f>O45/SUM(O41:O45)</f>
@@ -2691,59 +5364,59 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F47">
         <f>AVERAGE(B46:F46)</f>
-        <v>0.96666666666666679</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="O47">
         <f>AVERAGE(K46:O46)</f>
-        <v>0.98181818181818181</v>
+        <v>0.89848484848484844</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N50" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O50" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2752,16 +5425,16 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2773,12 +5446,12 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2796,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -2811,22 +5484,22 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
         <v>2</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>10</v>
-      </c>
       <c r="E53">
         <v>0</v>
       </c>
@@ -2834,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2854,25 +5527,25 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2892,13 +5565,13 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2907,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J55" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2930,43 +5603,43 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M57" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N57" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O57" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <f>E51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <f>F51</f>
@@ -2974,7 +5647,7 @@
       </c>
       <c r="D58">
         <f>B51</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <f>D51</f>
@@ -2985,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K58">
         <f>N51</f>
@@ -2993,11 +5666,11 @@
       </c>
       <c r="L58">
         <f>O51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <f>K51</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N58">
         <f>M51</f>
@@ -3010,277 +5683,277 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:B62" si="38">E52</f>
+        <f t="shared" ref="B59:C62" si="32">E52</f>
         <v>0</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:C62" si="39">F52</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D62" si="40">B52</f>
+        <f t="shared" ref="D59:D62" si="33">B52</f>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E62" si="41">D52</f>
+        <f t="shared" ref="E59:E62" si="34">D52</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F62" si="42">C52</f>
+        <f t="shared" ref="F59:F62" si="35">C52</f>
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K59">
-        <f t="shared" ref="K59:K62" si="43">N52</f>
+        <f t="shared" ref="K59:L62" si="36">N52</f>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L59:L62" si="44">O52</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>1</v>
       </c>
       <c r="M59">
-        <f t="shared" ref="M59:M62" si="45">K52</f>
+        <f t="shared" ref="M59:M62" si="37">K52</f>
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" ref="N59:N62" si="46">M52</f>
+        <f t="shared" ref="N59:N62" si="38">M52</f>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" ref="O59:O62" si="47">L52</f>
-        <v>10</v>
+        <f t="shared" ref="O59:O62" si="39">L52</f>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="B60">
+      <c r="F60">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>2</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="46"/>
-        <v>10</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B61">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>3</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="43"/>
-        <v>9</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B62">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="C62">
+      <c r="O62">
         <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L64" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N64" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O64" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B65">
         <f>B61</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:F65" si="48">C61</f>
+        <f t="shared" ref="C65:F66" si="40">C61</f>
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>2</v>
       </c>
       <c r="G65">
         <f>B65/SUM(B65:F65)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J65" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K65">
         <f>K61</f>
         <v>9</v>
       </c>
       <c r="L65">
-        <f t="shared" ref="L65:O65" si="49">L61</f>
+        <f t="shared" ref="L65:O66" si="41">L61</f>
         <v>1</v>
       </c>
       <c r="M65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P65">
@@ -3290,53 +5963,53 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <f>B62</f>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:F66" si="50">C62</f>
-        <v>10</v>
+        <f t="shared" si="40"/>
+        <v>8</v>
       </c>
       <c r="D66">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" si="50"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="G66">
         <f>C66/SUM(B66:F66)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J66" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K66">
         <f>K62</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:O66" si="51">L62</f>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="M66">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="51"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P66">
@@ -3346,109 +6019,109 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <f>B58</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:F67" si="52">C58</f>
+        <f t="shared" ref="C67:F67" si="42">C58</f>
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="52"/>
-        <v>10</v>
+        <f t="shared" si="42"/>
+        <v>9</v>
       </c>
       <c r="E67">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="52"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G67">
         <f>D67/SUM(B67:F67)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J67" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K67">
         <f>K58</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:O67" si="53">L58</f>
-        <v>0</v>
+        <f t="shared" ref="L67:O67" si="43">L58</f>
+        <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" si="53"/>
-        <v>10</v>
+        <f t="shared" si="43"/>
+        <v>9</v>
       </c>
       <c r="N67">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="53"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P67">
         <f>M67/SUM(K67:O67)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B68">
         <f>B60</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:F68" si="54">C60</f>
+        <f t="shared" ref="C68:F68" si="44">C60</f>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="54"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="54"/>
-        <v>10</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="F68">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>8</v>
       </c>
       <c r="G68">
         <f>E68/SUM(B68:F68)</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J68" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K68">
         <f>K60</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:O68" si="55">L60</f>
+        <f t="shared" ref="L68:O68" si="45">L60</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="O68">
-        <f t="shared" si="55"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P68">
@@ -3458,26 +6131,26 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <f>B59</f>
         <v>0</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:F69" si="56">C59</f>
+        <f t="shared" ref="C69:F69" si="46">C59</f>
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="G69">
@@ -3486,44 +6159,44 @@
       </c>
       <c r="H69">
         <f>AVERAGE(G65:G69)</f>
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="J69" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K69">
         <f>K59</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:O69" si="57">L59</f>
-        <v>0</v>
+        <f t="shared" ref="L69:O69" si="47">L59</f>
+        <v>1</v>
       </c>
       <c r="M69">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="57"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="57"/>
-        <v>10</v>
+        <f t="shared" si="47"/>
+        <v>9</v>
       </c>
       <c r="P69">
         <f>O69/SUM(K69:O69)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q69">
         <f>AVERAGE(P65:P69)</f>
-        <v>0.98000000000000009</v>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B70">
         <f>B65/SUM(B65:B69)</f>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="C70">
         <f>C66/SUM(C65:C69)</f>
@@ -3531,7 +6204,7 @@
       </c>
       <c r="D70">
         <f>D67/SUM(D65:D69)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E70">
         <f>E68/SUM(E65:E69)</f>
@@ -3539,7 +6212,7 @@
       </c>
       <c r="F70">
         <f>F69/SUM(F65:F69)</f>
-        <v>1</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="K70">
         <f>K65/SUM(K65:K69)</f>
@@ -3547,7 +6220,7 @@
       </c>
       <c r="L70">
         <f>L66/SUM(L65:L69)</f>
-        <v>0.90909090909090906</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="M70">
         <f>M67/SUM(M65:M69)</f>
@@ -3565,11 +6238,11 @@
     <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F71">
         <f>AVERAGE(B70:F70)</f>
-        <v>1</v>
+        <v>0.85301587301587301</v>
       </c>
       <c r="O71">
         <f>AVERAGE(K70:O70)</f>
-        <v>0.98181818181818181</v>
+        <v>0.95384615384615379</v>
       </c>
     </row>
   </sheetData>
